--- a/client/assets/races/21kMoncofa.xlsx
+++ b/client/assets/races/21kMoncofa.xlsx
@@ -5,16 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diego\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diego\Desktop\tfg\client\assets\races\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96B2D4E3-D845-49D9-B7D7-AF06DED69C99}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38AF0372-9462-464A-B5A2-2384BF627303}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="1" xr2:uid="{C0C50D95-DFCA-4791-9AAB-60E833F179A4}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{C0C50D95-DFCA-4791-9AAB-60E833F179A4}"/>
   </bookViews>
   <sheets>
-    <sheet name="Summary" sheetId="1" r:id="rId1"/>
-    <sheet name="Results" sheetId="2" r:id="rId2"/>
+    <sheet name="Results" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1001" uniqueCount="496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="998" uniqueCount="493">
   <si>
     <t>Pos.</t>
   </si>
@@ -188,15 +187,6 @@
   </si>
   <si>
     <t>TORRES MARTINEZ, ALBERTO</t>
-  </si>
-  <si>
-    <t>Nombre</t>
-  </si>
-  <si>
-    <t>Media maraton Moncofa</t>
-  </si>
-  <si>
-    <t>Km</t>
   </si>
   <si>
     <t>MURCIA CORCOLES, JAVIER</t>
@@ -1958,42 +1948,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{498AAC3D-CE5E-4778-9E31-5D3481D06283}">
-  <dimension ref="A1:B6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B6">
-        <v>21</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{190A42EC-4DDA-4D9A-80F2-52A4F86FE988}">
   <dimension ref="A1:I378"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J384" sqref="J384"/>
+      <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2009,19 +1968,19 @@
         <v>2</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="E1" s="10" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="I1" s="11"/>
     </row>
@@ -2045,7 +2004,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="H2" s="6"/>
       <c r="I2" s="9"/>
@@ -2070,10 +2029,10 @@
         <v>1</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="I3" s="9"/>
     </row>
@@ -2097,7 +2056,7 @@
         <v>2</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="H4" s="6"/>
       <c r="I4" s="9"/>
@@ -2122,10 +2081,10 @@
         <v>3</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="I5" s="9"/>
     </row>
@@ -2149,7 +2108,7 @@
         <v>4</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="H6" s="6"/>
       <c r="I6" s="9"/>
@@ -2174,10 +2133,10 @@
         <v>2</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="I7" s="9"/>
     </row>
@@ -2201,10 +2160,10 @@
         <v>3</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="I8" s="9"/>
     </row>
@@ -2228,7 +2187,7 @@
         <v>5</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="H9" s="6"/>
       <c r="I9" s="9"/>
@@ -2253,10 +2212,10 @@
         <v>4</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="I10" s="9"/>
     </row>
@@ -2280,10 +2239,10 @@
         <v>6</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="I11" s="9"/>
     </row>
@@ -2307,10 +2266,10 @@
         <v>7</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="I12" s="9"/>
     </row>
@@ -2334,10 +2293,10 @@
         <v>5</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="I13" s="9"/>
     </row>
@@ -2361,10 +2320,10 @@
         <v>6</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="I14" s="9"/>
     </row>
@@ -2388,10 +2347,10 @@
         <v>8</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="I15" s="9"/>
     </row>
@@ -2415,10 +2374,10 @@
         <v>9</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="I16" s="9"/>
     </row>
@@ -2442,10 +2401,10 @@
         <v>7</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="I17" s="9"/>
     </row>
@@ -2469,10 +2428,10 @@
         <v>1</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="I18" s="9"/>
     </row>
@@ -2496,10 +2455,10 @@
         <v>8</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="I19" s="9"/>
     </row>
@@ -2523,10 +2482,10 @@
         <v>9</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="I20" s="9"/>
     </row>
@@ -2550,10 +2509,10 @@
         <v>10</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="I21" s="9"/>
     </row>
@@ -2577,10 +2536,10 @@
         <v>11</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="I22" s="9"/>
     </row>
@@ -2604,10 +2563,10 @@
         <v>12</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="I23" s="9"/>
     </row>
@@ -2631,7 +2590,7 @@
         <v>13</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="H24" s="6"/>
       <c r="I24" s="9"/>
@@ -2656,10 +2615,10 @@
         <v>14</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="I25" s="9"/>
     </row>
@@ -2683,10 +2642,10 @@
         <v>10</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="I26" s="9"/>
     </row>
@@ -2710,10 +2669,10 @@
         <v>11</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="I27" s="9"/>
     </row>
@@ -2737,10 +2696,10 @@
         <v>2</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="I28" s="9"/>
     </row>
@@ -2764,10 +2723,10 @@
         <v>12</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="I29" s="9"/>
     </row>
@@ -2791,10 +2750,10 @@
         <v>15</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="I30" s="9"/>
     </row>
@@ -2818,7 +2777,7 @@
         <v>13</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="H31" s="6"/>
       <c r="I31" s="9"/>
@@ -2843,10 +2802,10 @@
         <v>16</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="I32" s="9"/>
     </row>
@@ -2870,7 +2829,7 @@
         <v>17</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="H33" s="6"/>
       <c r="I33" s="9"/>
@@ -2895,10 +2854,10 @@
         <v>18</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="I34" s="9"/>
     </row>
@@ -2922,10 +2881,10 @@
         <v>19</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="I35" s="9"/>
     </row>
@@ -2949,10 +2908,10 @@
         <v>14</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="I36" s="9"/>
     </row>
@@ -2976,10 +2935,10 @@
         <v>3</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="H37" s="6" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="I37" s="9"/>
     </row>
@@ -3003,10 +2962,10 @@
         <v>20</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="H38" s="6" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="I38" s="9"/>
     </row>
@@ -3030,10 +2989,10 @@
         <v>21</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="H39" s="6" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="I39" s="9"/>
     </row>
@@ -3057,7 +3016,7 @@
         <v>22</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="H40" s="6"/>
       <c r="I40" s="9"/>
@@ -3082,10 +3041,10 @@
         <v>15</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="H41" s="6" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="I41" s="9"/>
     </row>
@@ -3109,7 +3068,7 @@
         <v>23</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="H42" s="6"/>
       <c r="I42" s="9"/>
@@ -3134,7 +3093,7 @@
         <v>1</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="H43" s="6"/>
       <c r="I43" s="9"/>
@@ -3159,10 +3118,10 @@
         <v>16</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="H44" s="6" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="I44" s="9"/>
     </row>
@@ -3186,10 +3145,10 @@
         <v>24</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="H45" s="6" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="I45" s="9"/>
     </row>
@@ -3213,10 +3172,10 @@
         <v>25</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="H46" s="6" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="I46" s="9"/>
     </row>
@@ -3240,10 +3199,10 @@
         <v>17</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="H47" s="6" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="I47" s="9"/>
     </row>
@@ -3267,10 +3226,10 @@
         <v>26</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="H48" s="6" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="I48" s="9"/>
     </row>
@@ -3294,7 +3253,7 @@
         <v>27</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="H49" s="6"/>
       <c r="I49" s="9"/>
@@ -3319,10 +3278,10 @@
         <v>28</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="H50" s="6" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="I50" s="9"/>
     </row>
@@ -3346,10 +3305,10 @@
         <v>29</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="H51" s="6" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="I51" s="5"/>
     </row>
@@ -3367,16 +3326,16 @@
         <v>220</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F52" s="6">
         <v>18</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="H52" s="6" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="I52" s="9"/>
     </row>
@@ -3394,16 +3353,16 @@
         <v>432</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F53" s="6">
         <v>19</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="H53" s="6" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="I53" s="9"/>
     </row>
@@ -3421,16 +3380,16 @@
         <v>97</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F54" s="6">
         <v>30</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="H54" s="6" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="I54" s="9"/>
     </row>
@@ -3448,16 +3407,16 @@
         <v>395</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F55" s="6">
         <v>20</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="H55" s="6" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="I55" s="9"/>
     </row>
@@ -3475,16 +3434,16 @@
         <v>12</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F56" s="6">
         <v>21</v>
       </c>
       <c r="G56" s="6" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="H56" s="6" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="I56" s="9"/>
     </row>
@@ -3502,16 +3461,16 @@
         <v>14</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F57" s="6">
         <v>31</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="H57" s="6" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="I57" s="9"/>
     </row>
@@ -3529,16 +3488,16 @@
         <v>194</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F58" s="6">
         <v>32</v>
       </c>
       <c r="G58" s="6" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="H58" s="6" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="I58" s="9"/>
     </row>
@@ -3556,16 +3515,16 @@
         <v>22</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F59" s="6">
         <v>4</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="H59" s="6" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="I59" s="9"/>
     </row>
@@ -3583,16 +3542,16 @@
         <v>337</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F60" s="6">
         <v>22</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="H60" s="6" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="I60" s="9"/>
     </row>
@@ -3610,16 +3569,16 @@
         <v>28</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F61" s="6">
         <v>23</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="H61" s="6" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="I61" s="9"/>
     </row>
@@ -3637,13 +3596,13 @@
         <v>161</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F62" s="6">
         <v>24</v>
       </c>
       <c r="G62" s="6" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="H62" s="6"/>
       <c r="I62" s="9"/>
@@ -3662,16 +3621,16 @@
         <v>437</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F63" s="6">
         <v>33</v>
       </c>
       <c r="G63" s="6" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="H63" s="6" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="I63" s="9"/>
     </row>
@@ -3689,16 +3648,16 @@
         <v>327</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F64" s="6">
         <v>1</v>
       </c>
       <c r="G64" s="6" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="H64" s="6" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="I64" s="9"/>
     </row>
@@ -3716,13 +3675,13 @@
         <v>200</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F65" s="6">
         <v>25</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="H65" s="6"/>
       <c r="I65" s="9"/>
@@ -3741,13 +3700,13 @@
         <v>417</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F66" s="6">
         <v>34</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="H66" s="6"/>
       <c r="I66" s="9"/>
@@ -3766,16 +3725,16 @@
         <v>121</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F67" s="6">
         <v>5</v>
       </c>
       <c r="G67" s="6" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="H67" s="6" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="I67" s="9"/>
     </row>
@@ -3793,16 +3752,16 @@
         <v>133</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F68" s="6">
         <v>35</v>
       </c>
       <c r="G68" s="6" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="H68" s="6" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="I68" s="9"/>
     </row>
@@ -3820,16 +3779,16 @@
         <v>171</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F69" s="6">
         <v>6</v>
       </c>
       <c r="G69" s="6" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="H69" s="6" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="I69" s="9"/>
     </row>
@@ -3847,16 +3806,16 @@
         <v>110</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F70" s="6">
         <v>26</v>
       </c>
       <c r="G70" s="6" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="H70" s="6" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="I70" s="9"/>
     </row>
@@ -3874,13 +3833,13 @@
         <v>36</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F71" s="6">
         <v>36</v>
       </c>
       <c r="G71" s="6" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="H71" s="6"/>
       <c r="I71" s="9"/>
@@ -3899,13 +3858,13 @@
         <v>98</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F72" s="6">
         <v>37</v>
       </c>
       <c r="G72" s="6" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="H72" s="6"/>
       <c r="I72" s="9"/>
@@ -3924,16 +3883,16 @@
         <v>195</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F73" s="6">
         <v>38</v>
       </c>
       <c r="G73" s="6" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="H73" s="6" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="I73" s="9"/>
     </row>
@@ -3951,16 +3910,16 @@
         <v>82</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F74" s="6">
         <v>7</v>
       </c>
       <c r="G74" s="6" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="H74" s="6" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="I74" s="9"/>
     </row>
@@ -3978,16 +3937,16 @@
         <v>103</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F75" s="6">
         <v>39</v>
       </c>
       <c r="G75" s="6" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="H75" s="6" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="I75" s="9"/>
     </row>
@@ -4005,13 +3964,13 @@
         <v>199</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F76" s="6">
         <v>8</v>
       </c>
       <c r="G76" s="6" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="H76" s="6"/>
       <c r="I76" s="9"/>
@@ -4030,16 +3989,16 @@
         <v>277</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F77" s="6">
         <v>40</v>
       </c>
       <c r="G77" s="6" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="H77" s="6" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="I77" s="9"/>
     </row>
@@ -4057,16 +4016,16 @@
         <v>183</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F78" s="6">
         <v>27</v>
       </c>
       <c r="G78" s="6" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="H78" s="6" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="I78" s="9"/>
     </row>
@@ -4084,16 +4043,16 @@
         <v>378</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F79" s="6">
         <v>9</v>
       </c>
       <c r="G79" s="6" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="H79" s="6" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="I79" s="9"/>
     </row>
@@ -4111,13 +4070,13 @@
         <v>178</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F80" s="6">
         <v>28</v>
       </c>
       <c r="G80" s="6" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="H80" s="6"/>
       <c r="I80" s="9"/>
@@ -4136,16 +4095,16 @@
         <v>32</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F81" s="6">
         <v>29</v>
       </c>
       <c r="G81" s="6" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="H81" s="6" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="I81" s="9"/>
     </row>
@@ -4163,16 +4122,16 @@
         <v>399</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F82" s="6">
         <v>41</v>
       </c>
       <c r="G82" s="6" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="H82" s="6" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="I82" s="9"/>
     </row>
@@ -4190,16 +4149,16 @@
         <v>420</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F83" s="6">
         <v>42</v>
       </c>
       <c r="G83" s="6" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="H83" s="6" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="I83" s="9"/>
     </row>
@@ -4217,16 +4176,16 @@
         <v>143</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F84" s="6">
         <v>30</v>
       </c>
       <c r="G84" s="6" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="H84" s="6" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="I84" s="9"/>
     </row>
@@ -4244,16 +4203,16 @@
         <v>374</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F85" s="6">
         <v>43</v>
       </c>
       <c r="G85" s="6" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="H85" s="6" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="I85" s="9"/>
     </row>
@@ -4271,13 +4230,13 @@
         <v>286</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F86" s="6">
         <v>31</v>
       </c>
       <c r="G86" s="6" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="H86" s="6"/>
       <c r="I86" s="9"/>
@@ -4296,16 +4255,16 @@
         <v>125</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F87" s="6">
         <v>44</v>
       </c>
       <c r="G87" s="6" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="H87" s="6" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="I87" s="9"/>
     </row>
@@ -4323,16 +4282,16 @@
         <v>90</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F88" s="6">
         <v>10</v>
       </c>
       <c r="G88" s="6" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="H88" s="6" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="I88" s="9"/>
     </row>
@@ -4350,16 +4309,16 @@
         <v>88</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F89" s="6">
         <v>11</v>
       </c>
       <c r="G89" s="6" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="H89" s="6" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="I89" s="9"/>
     </row>
@@ -4377,16 +4336,16 @@
         <v>242</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F90" s="6">
         <v>12</v>
       </c>
       <c r="G90" s="6" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="H90" s="6" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="I90" s="9"/>
     </row>
@@ -4404,13 +4363,13 @@
         <v>104</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F91" s="6">
         <v>45</v>
       </c>
       <c r="G91" s="6" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="H91" s="6"/>
       <c r="I91" s="9"/>
@@ -4429,16 +4388,16 @@
         <v>112</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F92" s="6">
         <v>46</v>
       </c>
       <c r="G92" s="6" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="H92" s="6" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="I92" s="9"/>
     </row>
@@ -4456,16 +4415,16 @@
         <v>77</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F93" s="6">
         <v>32</v>
       </c>
       <c r="G93" s="6" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="H93" s="6" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="I93" s="9"/>
     </row>
@@ -4483,16 +4442,16 @@
         <v>427</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F94" s="6">
         <v>33</v>
       </c>
       <c r="G94" s="6" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="H94" s="6" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="I94" s="9"/>
     </row>
@@ -4510,16 +4469,16 @@
         <v>145</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F95" s="6">
         <v>47</v>
       </c>
       <c r="G95" s="6" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="H95" s="6" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="I95" s="9"/>
     </row>
@@ -4537,16 +4496,16 @@
         <v>73</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F96" s="6">
         <v>34</v>
       </c>
       <c r="G96" s="6" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="H96" s="6" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="I96" s="9"/>
     </row>
@@ -4564,16 +4523,16 @@
         <v>426</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F97" s="6">
         <v>35</v>
       </c>
       <c r="G97" s="6" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="H97" s="6" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="I97" s="9"/>
     </row>
@@ -4591,16 +4550,16 @@
         <v>360</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F98" s="6">
         <v>36</v>
       </c>
       <c r="G98" s="6" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="H98" s="6" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="I98" s="9"/>
     </row>
@@ -4618,16 +4577,16 @@
         <v>222</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F99" s="6">
         <v>48</v>
       </c>
       <c r="G99" s="6" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="H99" s="6" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="I99" s="9"/>
     </row>
@@ -4645,13 +4604,13 @@
         <v>162</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F100" s="6">
         <v>49</v>
       </c>
       <c r="G100" s="6" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="H100" s="6"/>
       <c r="I100" s="9"/>
@@ -4670,16 +4629,16 @@
         <v>379</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F101" s="6">
         <v>50</v>
       </c>
       <c r="G101" s="6" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="H101" s="6" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="I101" s="5"/>
     </row>
@@ -4697,16 +4656,16 @@
         <v>318</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F102" s="6">
         <v>37</v>
       </c>
       <c r="G102" s="6" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="H102" s="6" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="I102" s="9"/>
     </row>
@@ -4724,16 +4683,16 @@
         <v>340</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F103" s="6">
         <v>38</v>
       </c>
       <c r="G103" s="6" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="H103" s="6" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="I103" s="9"/>
     </row>
@@ -4751,16 +4710,16 @@
         <v>274</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F104" s="6">
         <v>39</v>
       </c>
       <c r="G104" s="6" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="H104" s="6" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="I104" s="9"/>
     </row>
@@ -4778,16 +4737,16 @@
         <v>351</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F105" s="6">
         <v>51</v>
       </c>
       <c r="G105" s="6" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="H105" s="6" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="I105" s="9"/>
     </row>
@@ -4805,16 +4764,16 @@
         <v>239</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F106" s="6">
         <v>40</v>
       </c>
       <c r="G106" s="6" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="H106" s="6" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="I106" s="9"/>
     </row>
@@ -4832,16 +4791,16 @@
         <v>382</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F107" s="6">
         <v>41</v>
       </c>
       <c r="G107" s="6" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="H107" s="6" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="I107" s="9"/>
     </row>
@@ -4859,16 +4818,16 @@
         <v>349</v>
       </c>
       <c r="E108" s="4" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F108" s="6">
         <v>42</v>
       </c>
       <c r="G108" s="6" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="H108" s="6" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="I108" s="9"/>
     </row>
@@ -4886,13 +4845,13 @@
         <v>414</v>
       </c>
       <c r="E109" s="4" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F109" s="6">
         <v>43</v>
       </c>
       <c r="G109" s="6" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="H109" s="6"/>
       <c r="I109" s="9"/>
@@ -4911,16 +4870,16 @@
         <v>381</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F110" s="6">
         <v>44</v>
       </c>
       <c r="G110" s="6" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="H110" s="6" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="I110" s="9"/>
     </row>
@@ -4938,16 +4897,16 @@
         <v>315</v>
       </c>
       <c r="E111" s="4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F111" s="6">
         <v>52</v>
       </c>
       <c r="G111" s="6" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="H111" s="6" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="I111" s="9"/>
     </row>
@@ -4965,16 +4924,16 @@
         <v>219</v>
       </c>
       <c r="E112" s="4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F112" s="6">
         <v>53</v>
       </c>
       <c r="G112" s="6" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="H112" s="6" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="I112" s="9"/>
     </row>
@@ -4992,13 +4951,13 @@
         <v>311</v>
       </c>
       <c r="E113" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F113" s="6">
         <v>45</v>
       </c>
       <c r="G113" s="6" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="H113" s="6"/>
       <c r="I113" s="9"/>
@@ -5017,13 +4976,13 @@
         <v>434</v>
       </c>
       <c r="E114" s="4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F114" s="6">
         <v>13</v>
       </c>
       <c r="G114" s="6" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="H114" s="6"/>
       <c r="I114" s="9"/>
@@ -5042,13 +5001,13 @@
         <v>307</v>
       </c>
       <c r="E115" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F115" s="6">
         <v>46</v>
       </c>
       <c r="G115" s="6" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="H115" s="6"/>
       <c r="I115" s="9"/>
@@ -5067,13 +5026,13 @@
         <v>213</v>
       </c>
       <c r="E116" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F116" s="6">
         <v>47</v>
       </c>
       <c r="G116" s="6" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="H116" s="6"/>
       <c r="I116" s="9"/>
@@ -5092,16 +5051,16 @@
         <v>192</v>
       </c>
       <c r="E117" s="4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F117" s="6">
         <v>54</v>
       </c>
       <c r="G117" s="6" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="H117" s="6" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="I117" s="9"/>
     </row>
@@ -5119,16 +5078,16 @@
         <v>255</v>
       </c>
       <c r="E118" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F118" s="6">
         <v>14</v>
       </c>
       <c r="G118" s="6" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="H118" s="6" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="I118" s="9"/>
     </row>
@@ -5146,13 +5105,13 @@
         <v>56</v>
       </c>
       <c r="E119" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F119" s="6">
         <v>48</v>
       </c>
       <c r="G119" s="6" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="H119" s="6"/>
       <c r="I119" s="9"/>
@@ -5171,16 +5130,16 @@
         <v>217</v>
       </c>
       <c r="E120" s="4" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F120" s="6">
         <v>15</v>
       </c>
       <c r="G120" s="6" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="H120" s="6" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="I120" s="9"/>
     </row>
@@ -5198,13 +5157,13 @@
         <v>185</v>
       </c>
       <c r="E121" s="4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F121" s="6">
         <v>16</v>
       </c>
       <c r="G121" s="6" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="H121" s="6"/>
       <c r="I121" s="9"/>
@@ -5223,16 +5182,16 @@
         <v>358</v>
       </c>
       <c r="E122" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F122" s="6">
         <v>17</v>
       </c>
       <c r="G122" s="6" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="H122" s="6" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="I122" s="9"/>
     </row>
@@ -5250,16 +5209,16 @@
         <v>287</v>
       </c>
       <c r="E123" s="4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F123" s="6">
         <v>49</v>
       </c>
       <c r="G123" s="6" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="H123" s="6" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="I123" s="9"/>
     </row>
@@ -5277,16 +5236,16 @@
         <v>119</v>
       </c>
       <c r="E124" s="4" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F124" s="6">
         <v>50</v>
       </c>
       <c r="G124" s="6" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="H124" s="6" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="I124" s="9"/>
     </row>
@@ -5304,16 +5263,16 @@
         <v>295</v>
       </c>
       <c r="E125" s="4" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F125" s="6">
         <v>55</v>
       </c>
       <c r="G125" s="6" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="H125" s="6" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="I125" s="9"/>
     </row>
@@ -5331,16 +5290,16 @@
         <v>320</v>
       </c>
       <c r="E126" s="4" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F126" s="6">
         <v>56</v>
       </c>
       <c r="G126" s="6" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="H126" s="6" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="I126" s="9"/>
     </row>
@@ -5358,13 +5317,13 @@
         <v>403</v>
       </c>
       <c r="E127" s="4" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F127" s="6">
         <v>51</v>
       </c>
       <c r="G127" s="6" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="H127" s="6"/>
       <c r="I127" s="9"/>
@@ -5383,16 +5342,16 @@
         <v>186</v>
       </c>
       <c r="E128" s="4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F128" s="6">
         <v>57</v>
       </c>
       <c r="G128" s="6" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="H128" s="6" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="I128" s="9"/>
     </row>
@@ -5410,16 +5369,16 @@
         <v>204</v>
       </c>
       <c r="E129" s="4" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F129" s="6">
         <v>2</v>
       </c>
       <c r="G129" s="6" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="H129" s="6" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="I129" s="9"/>
     </row>
@@ -5437,13 +5396,13 @@
         <v>51</v>
       </c>
       <c r="E130" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F130" s="6">
         <v>18</v>
       </c>
       <c r="G130" s="6" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="H130" s="6"/>
       <c r="I130" s="9"/>
@@ -5462,16 +5421,16 @@
         <v>233</v>
       </c>
       <c r="E131" s="4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F131" s="6">
         <v>52</v>
       </c>
       <c r="G131" s="6" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="H131" s="6" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="I131" s="9"/>
     </row>
@@ -5489,16 +5448,16 @@
         <v>60</v>
       </c>
       <c r="E132" s="4" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F132" s="6">
         <v>53</v>
       </c>
       <c r="G132" s="6" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="H132" s="6" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="I132" s="9"/>
     </row>
@@ -5516,16 +5475,16 @@
         <v>215</v>
       </c>
       <c r="E133" s="4" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F133" s="6">
         <v>54</v>
       </c>
       <c r="G133" s="6" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="H133" s="6" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="I133" s="9"/>
     </row>
@@ -5543,16 +5502,16 @@
         <v>319</v>
       </c>
       <c r="E134" s="4" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F134" s="6">
         <v>55</v>
       </c>
       <c r="G134" s="6" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="H134" s="6" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="I134" s="9"/>
     </row>
@@ -5570,16 +5529,16 @@
         <v>339</v>
       </c>
       <c r="E135" s="4" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F135" s="6">
         <v>19</v>
       </c>
       <c r="G135" s="6" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="H135" s="6" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="I135" s="9"/>
     </row>
@@ -5597,13 +5556,13 @@
         <v>425</v>
       </c>
       <c r="E136" s="4" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F136" s="6">
         <v>20</v>
       </c>
       <c r="G136" s="6" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="H136" s="6"/>
       <c r="I136" s="9"/>
@@ -5622,13 +5581,13 @@
         <v>198</v>
       </c>
       <c r="E137" s="4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F137" s="6">
         <v>58</v>
       </c>
       <c r="G137" s="6" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="H137" s="6"/>
       <c r="I137" s="9"/>
@@ -5647,16 +5606,16 @@
         <v>124</v>
       </c>
       <c r="E138" s="4" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F138" s="6">
         <v>56</v>
       </c>
       <c r="G138" s="6" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="H138" s="6" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="I138" s="9"/>
     </row>
@@ -5674,16 +5633,16 @@
         <v>363</v>
       </c>
       <c r="E139" s="4" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F139" s="6">
         <v>59</v>
       </c>
       <c r="G139" s="6" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="H139" s="6" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="I139" s="9"/>
     </row>
@@ -5701,13 +5660,13 @@
         <v>326</v>
       </c>
       <c r="E140" s="4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F140" s="6">
         <v>60</v>
       </c>
       <c r="G140" s="6" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="H140" s="6"/>
       <c r="I140" s="9"/>
@@ -5726,16 +5685,16 @@
         <v>364</v>
       </c>
       <c r="E141" s="4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F141" s="6">
         <v>21</v>
       </c>
       <c r="G141" s="6" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="H141" s="6" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="I141" s="9"/>
     </row>
@@ -5753,13 +5712,13 @@
         <v>325</v>
       </c>
       <c r="E142" s="4" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F142" s="6">
         <v>61</v>
       </c>
       <c r="G142" s="6" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="H142" s="6"/>
       <c r="I142" s="9"/>
@@ -5778,16 +5737,16 @@
         <v>408</v>
       </c>
       <c r="E143" s="4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F143" s="6">
         <v>2</v>
       </c>
       <c r="G143" s="6" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="H143" s="6" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="I143" s="9"/>
     </row>
@@ -5805,16 +5764,16 @@
         <v>61</v>
       </c>
       <c r="E144" s="4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F144" s="6">
         <v>62</v>
       </c>
       <c r="G144" s="6" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="H144" s="6" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="I144" s="9"/>
     </row>
@@ -5832,16 +5791,16 @@
         <v>350</v>
       </c>
       <c r="E145" s="4" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F145" s="6">
         <v>63</v>
       </c>
       <c r="G145" s="6" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="H145" s="6" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="I145" s="9"/>
     </row>
@@ -5859,13 +5818,13 @@
         <v>71</v>
       </c>
       <c r="E146" s="4" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F146" s="6">
         <v>3</v>
       </c>
       <c r="G146" s="6" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="H146" s="6"/>
       <c r="I146" s="9"/>
@@ -5884,16 +5843,16 @@
         <v>272</v>
       </c>
       <c r="E147" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F147" s="6">
         <v>64</v>
       </c>
       <c r="G147" s="6" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="H147" s="6" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="I147" s="9"/>
     </row>
@@ -5911,16 +5870,16 @@
         <v>366</v>
       </c>
       <c r="E148" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F148" s="6">
         <v>65</v>
       </c>
       <c r="G148" s="6" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="H148" s="6" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="I148" s="9"/>
     </row>
@@ -5938,16 +5897,16 @@
         <v>63</v>
       </c>
       <c r="E149" s="4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F149" s="6">
         <v>66</v>
       </c>
       <c r="G149" s="6" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="H149" s="6" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="I149" s="9"/>
     </row>
@@ -5965,13 +5924,13 @@
         <v>46</v>
       </c>
       <c r="E150" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F150" s="6">
         <v>67</v>
       </c>
       <c r="G150" s="6" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="H150" s="6"/>
       <c r="I150" s="9"/>
@@ -5990,16 +5949,16 @@
         <v>196</v>
       </c>
       <c r="E151" s="4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F151" s="6">
         <v>68</v>
       </c>
       <c r="G151" s="6" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="H151" s="6" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="I151" s="5"/>
     </row>
@@ -6017,16 +5976,16 @@
         <v>78</v>
       </c>
       <c r="E152" s="4" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F152" s="6">
         <v>3</v>
       </c>
       <c r="G152" s="6" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="H152" s="6" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="I152" s="11"/>
     </row>
@@ -6044,13 +6003,13 @@
         <v>55</v>
       </c>
       <c r="E153" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F153" s="6">
         <v>57</v>
       </c>
       <c r="G153" s="6" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="H153" s="6"/>
       <c r="I153" s="9"/>
@@ -6069,16 +6028,16 @@
         <v>257</v>
       </c>
       <c r="E154" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F154" s="6">
         <v>22</v>
       </c>
       <c r="G154" s="6" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="H154" s="6" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="I154" s="9"/>
     </row>
@@ -6096,13 +6055,13 @@
         <v>176</v>
       </c>
       <c r="E155" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F155" s="6">
         <v>58</v>
       </c>
       <c r="G155" s="6" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="H155" s="6"/>
       <c r="I155" s="9"/>
@@ -6121,16 +6080,16 @@
         <v>174</v>
       </c>
       <c r="E156" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F156" s="6">
         <v>69</v>
       </c>
       <c r="G156" s="6" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="H156" s="6" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="I156" s="9"/>
     </row>
@@ -6148,16 +6107,16 @@
         <v>111</v>
       </c>
       <c r="E157" s="4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F157" s="6">
         <v>23</v>
       </c>
       <c r="G157" s="6" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="H157" s="6" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="I157" s="9"/>
     </row>
@@ -6175,16 +6134,16 @@
         <v>256</v>
       </c>
       <c r="E158" s="4" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F158" s="6">
         <v>24</v>
       </c>
       <c r="G158" s="6" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="H158" s="6" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="I158" s="9"/>
     </row>
@@ -6202,16 +6161,16 @@
         <v>269</v>
       </c>
       <c r="E159" s="4" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F159" s="6">
         <v>59</v>
       </c>
       <c r="G159" s="6" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="H159" s="6" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="I159" s="9"/>
     </row>
@@ -6229,13 +6188,13 @@
         <v>115</v>
       </c>
       <c r="E160" s="4" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F160" s="6">
         <v>60</v>
       </c>
       <c r="G160" s="6" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="H160" s="6"/>
       <c r="I160" s="9"/>
@@ -6254,13 +6213,13 @@
         <v>333</v>
       </c>
       <c r="E161" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F161" s="6">
         <v>70</v>
       </c>
       <c r="G161" s="6" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="H161" s="6"/>
       <c r="I161" s="9"/>
@@ -6279,16 +6238,16 @@
         <v>33</v>
       </c>
       <c r="E162" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F162" s="6">
         <v>71</v>
       </c>
       <c r="G162" s="6" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="H162" s="6" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="I162" s="9"/>
     </row>
@@ -6306,13 +6265,13 @@
         <v>323</v>
       </c>
       <c r="E163" s="4" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="F163" s="6">
         <v>72</v>
       </c>
       <c r="G163" s="6" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="H163" s="6"/>
       <c r="I163" s="9"/>
@@ -6331,16 +6290,16 @@
         <v>83</v>
       </c>
       <c r="E164" s="4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F164" s="6">
         <v>73</v>
       </c>
       <c r="G164" s="6" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="H164" s="6" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="I164" s="9"/>
     </row>
@@ -6358,13 +6317,13 @@
         <v>84</v>
       </c>
       <c r="E165" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F165" s="6">
         <v>74</v>
       </c>
       <c r="G165" s="6" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="H165" s="6"/>
       <c r="I165" s="9"/>
@@ -6383,16 +6342,16 @@
         <v>85</v>
       </c>
       <c r="E166" s="4" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F166" s="6">
         <v>75</v>
       </c>
       <c r="G166" s="6" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="H166" s="6" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="I166" s="9"/>
     </row>
@@ -6410,16 +6369,16 @@
         <v>422</v>
       </c>
       <c r="E167" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F167" s="6">
         <v>4</v>
       </c>
       <c r="G167" s="6" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="H167" s="6" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="I167" s="9"/>
     </row>
@@ -6437,16 +6396,16 @@
         <v>388</v>
       </c>
       <c r="E168" s="4" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F168" s="6">
         <v>76</v>
       </c>
       <c r="G168" s="6" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="H168" s="6" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="I168" s="9"/>
     </row>
@@ -6464,13 +6423,13 @@
         <v>191</v>
       </c>
       <c r="E169" s="4" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F169" s="6">
         <v>25</v>
       </c>
       <c r="G169" s="6" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="H169" s="6"/>
       <c r="I169" s="9"/>
@@ -6489,16 +6448,16 @@
         <v>331</v>
       </c>
       <c r="E170" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F170" s="6">
         <v>26</v>
       </c>
       <c r="G170" s="6" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="H170" s="6" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="I170" s="9"/>
     </row>
@@ -6516,16 +6475,16 @@
         <v>57</v>
       </c>
       <c r="E171" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F171" s="6">
         <v>77</v>
       </c>
       <c r="G171" s="6" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="H171" s="6" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="I171" s="9"/>
     </row>
@@ -6543,16 +6502,16 @@
         <v>170</v>
       </c>
       <c r="E172" s="4" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F172" s="6">
         <v>78</v>
       </c>
       <c r="G172" s="6" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="H172" s="6" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="I172" s="9"/>
     </row>
@@ -6570,16 +6529,16 @@
         <v>5</v>
       </c>
       <c r="E173" s="4" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F173" s="6">
         <v>79</v>
       </c>
       <c r="G173" s="6" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="H173" s="6" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="I173" s="9"/>
     </row>
@@ -6597,16 +6556,16 @@
         <v>367</v>
       </c>
       <c r="E174" s="4" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F174" s="6">
         <v>5</v>
       </c>
       <c r="G174" s="6" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="H174" s="6" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="I174" s="9"/>
     </row>
@@ -6624,16 +6583,16 @@
         <v>201</v>
       </c>
       <c r="E175" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F175" s="6">
         <v>27</v>
       </c>
       <c r="G175" s="6" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="H175" s="6" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="I175" s="9"/>
     </row>
@@ -6651,16 +6610,16 @@
         <v>240</v>
       </c>
       <c r="E176" s="4" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F176" s="6">
         <v>61</v>
       </c>
       <c r="G176" s="6" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="H176" s="6" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="I176" s="9"/>
     </row>
@@ -6678,13 +6637,13 @@
         <v>229</v>
       </c>
       <c r="E177" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="F177" s="6">
         <v>62</v>
       </c>
       <c r="G177" s="6" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="H177" s="6"/>
       <c r="I177" s="9"/>
@@ -6703,16 +6662,16 @@
         <v>373</v>
       </c>
       <c r="E178" s="4" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F178" s="6">
         <v>63</v>
       </c>
       <c r="G178" s="6" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="H178" s="6" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="I178" s="9"/>
     </row>
@@ -6730,16 +6689,16 @@
         <v>127</v>
       </c>
       <c r="E179" s="4" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="F179" s="6">
         <v>64</v>
       </c>
       <c r="G179" s="6" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="H179" s="6" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="I179" s="9"/>
     </row>
@@ -6757,16 +6716,16 @@
         <v>250</v>
       </c>
       <c r="E180" s="4" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F180" s="6">
         <v>65</v>
       </c>
       <c r="G180" s="6" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="H180" s="6" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="I180" s="9"/>
     </row>
@@ -6784,13 +6743,13 @@
         <v>241</v>
       </c>
       <c r="E181" s="4" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F181" s="6">
         <v>28</v>
       </c>
       <c r="G181" s="6" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="H181" s="6"/>
       <c r="I181" s="9"/>
@@ -6809,16 +6768,16 @@
         <v>207</v>
       </c>
       <c r="E182" s="4" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F182" s="6">
         <v>80</v>
       </c>
       <c r="G182" s="6" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="H182" s="6" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="I182" s="9"/>
     </row>
@@ -6836,13 +6795,13 @@
         <v>445</v>
       </c>
       <c r="E183" s="4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F183" s="6">
         <v>81</v>
       </c>
       <c r="G183" s="6" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="H183" s="6"/>
       <c r="I183" s="9"/>
@@ -6861,16 +6820,16 @@
         <v>299</v>
       </c>
       <c r="E184" s="4" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F184" s="6">
         <v>29</v>
       </c>
       <c r="G184" s="6" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="H184" s="6" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="I184" s="9"/>
     </row>
@@ -6888,13 +6847,13 @@
         <v>245</v>
       </c>
       <c r="E185" s="4" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F185" s="6">
         <v>30</v>
       </c>
       <c r="G185" s="6" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="H185" s="6"/>
       <c r="I185" s="9"/>
@@ -6913,13 +6872,13 @@
         <v>203</v>
       </c>
       <c r="E186" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F186" s="6">
         <v>31</v>
       </c>
       <c r="G186" s="6" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="H186" s="6"/>
       <c r="I186" s="9"/>
@@ -6938,13 +6897,13 @@
         <v>430</v>
       </c>
       <c r="E187" s="4" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="F187" s="6">
         <v>32</v>
       </c>
       <c r="G187" s="6" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="H187" s="6"/>
       <c r="I187" s="9"/>
@@ -6963,13 +6922,13 @@
         <v>17</v>
       </c>
       <c r="E188" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F188" s="6">
         <v>82</v>
       </c>
       <c r="G188" s="6" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="H188" s="6"/>
       <c r="I188" s="9"/>
@@ -6988,13 +6947,13 @@
         <v>212</v>
       </c>
       <c r="E189" s="4" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F189" s="6">
         <v>83</v>
       </c>
       <c r="G189" s="6" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="H189" s="6"/>
       <c r="I189" s="9"/>
@@ -7013,13 +6972,13 @@
         <v>93</v>
       </c>
       <c r="E190" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F190" s="6">
         <v>66</v>
       </c>
       <c r="G190" s="6" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="H190" s="6"/>
       <c r="I190" s="9"/>
@@ -7038,16 +6997,16 @@
         <v>369</v>
       </c>
       <c r="E191" s="4" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F191" s="6">
         <v>67</v>
       </c>
       <c r="G191" s="6" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="H191" s="6" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="I191" s="9"/>
     </row>
@@ -7065,16 +7024,16 @@
         <v>370</v>
       </c>
       <c r="E192" s="4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F192" s="6">
         <v>68</v>
       </c>
       <c r="G192" s="6" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="H192" s="6" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="I192" s="9"/>
     </row>
@@ -7092,16 +7051,16 @@
         <v>106</v>
       </c>
       <c r="E193" s="4" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F193" s="6">
         <v>69</v>
       </c>
       <c r="G193" s="6" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="H193" s="6" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="I193" s="9"/>
     </row>
@@ -7119,13 +7078,13 @@
         <v>221</v>
       </c>
       <c r="E194" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F194" s="6">
         <v>84</v>
       </c>
       <c r="G194" s="6" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="H194" s="6"/>
       <c r="I194" s="9"/>
@@ -7144,16 +7103,16 @@
         <v>188</v>
       </c>
       <c r="E195" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F195" s="6">
         <v>85</v>
       </c>
       <c r="G195" s="6" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="H195" s="6" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="I195" s="9"/>
     </row>
@@ -7171,16 +7130,16 @@
         <v>76</v>
       </c>
       <c r="E196" s="4" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F196" s="6">
         <v>86</v>
       </c>
       <c r="G196" s="6" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="H196" s="6" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="I196" s="9"/>
     </row>
@@ -7198,16 +7157,16 @@
         <v>117</v>
       </c>
       <c r="E197" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F197" s="6">
         <v>4</v>
       </c>
       <c r="G197" s="6" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="H197" s="6" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="I197" s="9"/>
     </row>
@@ -7225,13 +7184,13 @@
         <v>163</v>
       </c>
       <c r="E198" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F198" s="6">
         <v>87</v>
       </c>
       <c r="G198" s="6" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="H198" s="6"/>
       <c r="I198" s="9"/>
@@ -7250,13 +7209,13 @@
         <v>357</v>
       </c>
       <c r="E199" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F199" s="6">
         <v>70</v>
       </c>
       <c r="G199" s="6" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="H199" s="6"/>
       <c r="I199" s="9"/>
@@ -7275,16 +7234,16 @@
         <v>209</v>
       </c>
       <c r="E200" s="4" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F200" s="6">
         <v>33</v>
       </c>
       <c r="G200" s="6" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="H200" s="6" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="I200" s="9"/>
     </row>
@@ -7302,16 +7261,16 @@
         <v>134</v>
       </c>
       <c r="E201" s="4" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="F201" s="6">
         <v>88</v>
       </c>
       <c r="G201" s="6" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="H201" s="6" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="I201" s="9"/>
     </row>
@@ -7329,16 +7288,16 @@
         <v>128</v>
       </c>
       <c r="E202" s="4" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F202" s="6">
         <v>89</v>
       </c>
       <c r="G202" s="6" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="H202" s="6" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="I202" s="9"/>
     </row>
@@ -7356,16 +7315,16 @@
         <v>359</v>
       </c>
       <c r="E203" s="4" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F203" s="6">
         <v>71</v>
       </c>
       <c r="G203" s="6" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="H203" s="6" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="I203" s="9"/>
     </row>
@@ -7383,16 +7342,16 @@
         <v>429</v>
       </c>
       <c r="E204" s="4" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F204" s="6">
         <v>6</v>
       </c>
       <c r="G204" s="6" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="H204" s="6" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="I204" s="9"/>
     </row>
@@ -7410,16 +7369,16 @@
         <v>253</v>
       </c>
       <c r="E205" s="4" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F205" s="6">
         <v>72</v>
       </c>
       <c r="G205" s="6" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="H205" s="6" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="I205" s="9"/>
     </row>
@@ -7437,16 +7396,16 @@
         <v>400</v>
       </c>
       <c r="E206" s="4" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F206" s="6">
         <v>34</v>
       </c>
       <c r="G206" s="6" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="H206" s="6" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="I206" s="9"/>
     </row>
@@ -7464,16 +7423,16 @@
         <v>179</v>
       </c>
       <c r="E207" s="4" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F207" s="6">
         <v>90</v>
       </c>
       <c r="G207" s="6" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="H207" s="6" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="I207" s="9"/>
     </row>
@@ -7491,13 +7450,13 @@
         <v>296</v>
       </c>
       <c r="E208" s="4" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F208" s="6">
         <v>73</v>
       </c>
       <c r="G208" s="6" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="H208" s="6"/>
       <c r="I208" s="9"/>
@@ -7516,13 +7475,13 @@
         <v>413</v>
       </c>
       <c r="E209" s="4" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F209" s="6">
         <v>74</v>
       </c>
       <c r="G209" s="6" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="H209" s="6"/>
       <c r="I209" s="9"/>
@@ -7541,16 +7500,16 @@
         <v>231</v>
       </c>
       <c r="E210" s="4" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F210" s="6">
         <v>91</v>
       </c>
       <c r="G210" s="6" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="H210" s="6" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="I210" s="9"/>
     </row>
@@ -7568,13 +7527,13 @@
         <v>228</v>
       </c>
       <c r="E211" s="4" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F211" s="6">
         <v>75</v>
       </c>
       <c r="G211" s="6" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="H211" s="6"/>
       <c r="I211" s="9"/>
@@ -7593,13 +7552,13 @@
         <v>13</v>
       </c>
       <c r="E212" s="4" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F212" s="6">
         <v>92</v>
       </c>
       <c r="G212" s="6" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="H212" s="6"/>
       <c r="I212" s="9"/>
@@ -7618,16 +7577,16 @@
         <v>130</v>
       </c>
       <c r="E213" s="4" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F213" s="6">
         <v>93</v>
       </c>
       <c r="G213" s="6" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="H213" s="6" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="I213" s="9"/>
     </row>
@@ -7645,16 +7604,16 @@
         <v>116</v>
       </c>
       <c r="E214" s="4" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F214" s="6">
         <v>35</v>
       </c>
       <c r="G214" s="6" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="H214" s="6" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="I214" s="9"/>
     </row>
@@ -7672,13 +7631,13 @@
         <v>211</v>
       </c>
       <c r="E215" s="4" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="F215" s="6">
         <v>7</v>
       </c>
       <c r="G215" s="6" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="H215" s="6"/>
       <c r="I215" s="9"/>
@@ -7697,13 +7656,13 @@
         <v>59</v>
       </c>
       <c r="E216" s="4" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F216" s="6">
         <v>76</v>
       </c>
       <c r="G216" s="6" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="H216" s="6"/>
       <c r="I216" s="9"/>
@@ -7722,16 +7681,16 @@
         <v>53</v>
       </c>
       <c r="E217" s="4" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="F217" s="6">
         <v>77</v>
       </c>
       <c r="G217" s="6" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="H217" s="6" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="I217" s="9"/>
     </row>
@@ -7749,16 +7708,16 @@
         <v>305</v>
       </c>
       <c r="E218" s="4" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F218" s="6">
         <v>1</v>
       </c>
       <c r="G218" s="6" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="H218" s="6" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="I218" s="9"/>
     </row>
@@ -7776,16 +7735,16 @@
         <v>309</v>
       </c>
       <c r="E219" s="4" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F219" s="6">
         <v>36</v>
       </c>
       <c r="G219" s="6" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="H219" s="6" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="I219" s="9"/>
     </row>
@@ -7803,16 +7762,16 @@
         <v>354</v>
       </c>
       <c r="E220" s="4" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F220" s="6">
         <v>94</v>
       </c>
       <c r="G220" s="6" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="H220" s="6" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="I220" s="9"/>
     </row>
@@ -7830,16 +7789,16 @@
         <v>26</v>
       </c>
       <c r="E221" s="4" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="F221" s="6">
         <v>8</v>
       </c>
       <c r="G221" s="6" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="H221" s="6" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="I221" s="9"/>
     </row>
@@ -7857,13 +7816,13 @@
         <v>164</v>
       </c>
       <c r="E222" s="4" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F222" s="6">
         <v>78</v>
       </c>
       <c r="G222" s="6" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="H222" s="6"/>
       <c r="I222" s="9"/>
@@ -7882,13 +7841,13 @@
         <v>243</v>
       </c>
       <c r="E223" s="4" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F223" s="6">
         <v>95</v>
       </c>
       <c r="G223" s="6" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="H223" s="6"/>
       <c r="I223" s="9"/>
@@ -7907,16 +7866,16 @@
         <v>306</v>
       </c>
       <c r="E224" s="4" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F224" s="6">
         <v>96</v>
       </c>
       <c r="G224" s="6" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="H224" s="6" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="I224" s="9"/>
     </row>
@@ -7934,16 +7893,16 @@
         <v>261</v>
       </c>
       <c r="E225" s="4" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F225" s="6">
         <v>79</v>
       </c>
       <c r="G225" s="6" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="H225" s="6" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="I225" s="9"/>
     </row>
@@ -7961,13 +7920,13 @@
         <v>407</v>
       </c>
       <c r="E226" s="4" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F226" s="6">
         <v>97</v>
       </c>
       <c r="G226" s="6" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="H226" s="6"/>
       <c r="I226" s="9"/>
@@ -7986,16 +7945,16 @@
         <v>406</v>
       </c>
       <c r="E227" s="4" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F227" s="6">
         <v>98</v>
       </c>
       <c r="G227" s="6" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="H227" s="6" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="I227" s="9"/>
     </row>
@@ -8013,16 +7972,16 @@
         <v>329</v>
       </c>
       <c r="E228" s="4" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F228" s="6">
         <v>9</v>
       </c>
       <c r="G228" s="6" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="H228" s="6" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="I228" s="9"/>
     </row>
@@ -8040,16 +7999,16 @@
         <v>165</v>
       </c>
       <c r="E229" s="4" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F229" s="6">
         <v>80</v>
       </c>
       <c r="G229" s="6" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="H229" s="6" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="I229" s="9"/>
     </row>
@@ -8067,16 +8026,16 @@
         <v>344</v>
       </c>
       <c r="E230" s="4" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F230" s="6">
         <v>37</v>
       </c>
       <c r="G230" s="6" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="H230" s="6" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="I230" s="9"/>
     </row>
@@ -8094,16 +8053,16 @@
         <v>238</v>
       </c>
       <c r="E231" s="4" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="F231" s="6">
         <v>81</v>
       </c>
       <c r="G231" s="6" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="H231" s="6" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="I231" s="9"/>
     </row>
@@ -8121,16 +8080,16 @@
         <v>347</v>
       </c>
       <c r="E232" s="4" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F232" s="6">
         <v>99</v>
       </c>
       <c r="G232" s="6" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="H232" s="6" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="I232" s="9"/>
     </row>
@@ -8148,16 +8107,16 @@
         <v>281</v>
       </c>
       <c r="E233" s="4" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="F233" s="6">
         <v>82</v>
       </c>
       <c r="G233" s="6" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="H233" s="6" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="I233" s="9"/>
     </row>
@@ -8175,13 +8134,13 @@
         <v>297</v>
       </c>
       <c r="E234" s="4" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F234" s="6">
         <v>10</v>
       </c>
       <c r="G234" s="6" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="H234" s="6"/>
       <c r="I234" s="9"/>
@@ -8200,13 +8159,13 @@
         <v>377</v>
       </c>
       <c r="E235" s="4" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F235" s="6">
         <v>5</v>
       </c>
       <c r="G235" s="6" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="H235" s="6"/>
       <c r="I235" s="9"/>
@@ -8225,13 +8184,13 @@
         <v>135</v>
       </c>
       <c r="E236" s="4" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F236" s="6">
         <v>38</v>
       </c>
       <c r="G236" s="6" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="H236" s="6"/>
       <c r="I236" s="9"/>
@@ -8250,16 +8209,16 @@
         <v>267</v>
       </c>
       <c r="E237" s="4" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="F237" s="6">
         <v>83</v>
       </c>
       <c r="G237" s="6" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="H237" s="6" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="I237" s="9"/>
     </row>
@@ -8277,16 +8236,16 @@
         <v>259</v>
       </c>
       <c r="E238" s="4" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F238" s="6">
         <v>100</v>
       </c>
       <c r="G238" s="6" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="H238" s="6" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="I238" s="9"/>
     </row>
@@ -8304,16 +8263,16 @@
         <v>436</v>
       </c>
       <c r="E239" s="4" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F239" s="6">
         <v>101</v>
       </c>
       <c r="G239" s="6" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="H239" s="6" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="I239" s="9"/>
     </row>
@@ -8331,16 +8290,16 @@
         <v>361</v>
       </c>
       <c r="E240" s="4" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F240" s="6">
         <v>11</v>
       </c>
       <c r="G240" s="6" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="H240" s="6" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="I240" s="9"/>
     </row>
@@ -8358,13 +8317,13 @@
         <v>294</v>
       </c>
       <c r="E241" s="4" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="F241" s="6">
         <v>102</v>
       </c>
       <c r="G241" s="6" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="H241" s="6"/>
       <c r="I241" s="9"/>
@@ -8383,16 +8342,16 @@
         <v>258</v>
       </c>
       <c r="E242" s="4" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F242" s="6">
         <v>6</v>
       </c>
       <c r="G242" s="6" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="H242" s="6" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="I242" s="9"/>
     </row>
@@ -8410,16 +8369,16 @@
         <v>314</v>
       </c>
       <c r="E243" s="4" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="F243" s="6">
         <v>103</v>
       </c>
       <c r="G243" s="6" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="H243" s="6" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="I243" s="9"/>
     </row>
@@ -8437,13 +8396,13 @@
         <v>397</v>
       </c>
       <c r="E244" s="4" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F244" s="6">
         <v>12</v>
       </c>
       <c r="G244" s="6" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="H244" s="6"/>
       <c r="I244" s="9"/>
@@ -8462,16 +8421,16 @@
         <v>343</v>
       </c>
       <c r="E245" s="4" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="F245" s="6">
         <v>39</v>
       </c>
       <c r="G245" s="6" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="H245" s="6" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="I245" s="9"/>
     </row>
@@ -8489,13 +8448,13 @@
         <v>383</v>
       </c>
       <c r="E246" s="4" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F246" s="6">
         <v>104</v>
       </c>
       <c r="G246" s="6" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="H246" s="6"/>
       <c r="I246" s="9"/>
@@ -8514,16 +8473,16 @@
         <v>375</v>
       </c>
       <c r="E247" s="4" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="F247" s="6">
         <v>84</v>
       </c>
       <c r="G247" s="6" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="H247" s="6" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="I247" s="9"/>
     </row>
@@ -8541,16 +8500,16 @@
         <v>393</v>
       </c>
       <c r="E248" s="4" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F248" s="6">
         <v>85</v>
       </c>
       <c r="G248" s="6" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="H248" s="6" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="I248" s="9"/>
     </row>
@@ -8568,13 +8527,13 @@
         <v>120</v>
       </c>
       <c r="E249" s="4" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="F249" s="6">
         <v>86</v>
       </c>
       <c r="G249" s="6" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="H249" s="6"/>
       <c r="I249" s="9"/>
@@ -8593,13 +8552,13 @@
         <v>423</v>
       </c>
       <c r="E250" s="4" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F250" s="6">
         <v>105</v>
       </c>
       <c r="G250" s="6" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="H250" s="6"/>
       <c r="I250" s="9"/>
@@ -8618,16 +8577,16 @@
         <v>289</v>
       </c>
       <c r="E251" s="4" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F251" s="6">
         <v>106</v>
       </c>
       <c r="G251" s="6" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="H251" s="6" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="I251" s="5"/>
     </row>
@@ -8645,13 +8604,13 @@
         <v>300</v>
       </c>
       <c r="E252" s="4" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F252" s="6">
         <v>87</v>
       </c>
       <c r="G252" s="6" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="H252" s="6"/>
       <c r="I252" s="9"/>
@@ -8670,16 +8629,16 @@
         <v>368</v>
       </c>
       <c r="E253" s="4" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="F253" s="6">
         <v>40</v>
       </c>
       <c r="G253" s="6" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="H253" s="6" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="I253" s="9"/>
     </row>
@@ -8697,16 +8656,16 @@
         <v>252</v>
       </c>
       <c r="E254" s="4" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F254" s="6">
         <v>107</v>
       </c>
       <c r="G254" s="6" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="H254" s="6" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="I254" s="9"/>
     </row>
@@ -8724,16 +8683,16 @@
         <v>371</v>
       </c>
       <c r="E255" s="4" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F255" s="6">
         <v>108</v>
       </c>
       <c r="G255" s="6" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="H255" s="6" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="I255" s="9"/>
     </row>
@@ -8751,16 +8710,16 @@
         <v>230</v>
       </c>
       <c r="E256" s="4" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F256" s="6">
         <v>41</v>
       </c>
       <c r="G256" s="6" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="H256" s="6" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="I256" s="9"/>
     </row>
@@ -8778,13 +8737,13 @@
         <v>412</v>
       </c>
       <c r="E257" s="4" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="F257" s="6">
         <v>88</v>
       </c>
       <c r="G257" s="6" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="H257" s="6"/>
       <c r="I257" s="9"/>
@@ -8803,13 +8762,13 @@
         <v>401</v>
       </c>
       <c r="E258" s="4" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F258" s="6">
         <v>109</v>
       </c>
       <c r="G258" s="6" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="H258" s="6"/>
       <c r="I258" s="9"/>
@@ -8828,13 +8787,13 @@
         <v>142</v>
       </c>
       <c r="E259" s="4" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="F259" s="6">
         <v>89</v>
       </c>
       <c r="G259" s="6" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="H259" s="6"/>
       <c r="I259" s="9"/>
@@ -8853,13 +8812,13 @@
         <v>137</v>
       </c>
       <c r="E260" s="4" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F260" s="6">
         <v>90</v>
       </c>
       <c r="G260" s="6" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="H260" s="6"/>
       <c r="I260" s="9"/>
@@ -8878,13 +8837,13 @@
         <v>144</v>
       </c>
       <c r="E261" s="4" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="F261" s="6">
         <v>91</v>
       </c>
       <c r="G261" s="6" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="H261" s="6"/>
       <c r="I261" s="9"/>
@@ -8903,16 +8862,16 @@
         <v>190</v>
       </c>
       <c r="E262" s="4" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F262" s="6">
         <v>7</v>
       </c>
       <c r="G262" s="6" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="H262" s="6" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="I262" s="9"/>
     </row>
@@ -8930,13 +8889,13 @@
         <v>389</v>
       </c>
       <c r="E263" s="4" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="F263" s="6">
         <v>110</v>
       </c>
       <c r="G263" s="6" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="H263" s="6"/>
       <c r="I263" s="9"/>
@@ -8955,16 +8914,16 @@
         <v>151</v>
       </c>
       <c r="E264" s="4" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F264" s="6">
         <v>111</v>
       </c>
       <c r="G264" s="6" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="H264" s="6" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="I264" s="9"/>
     </row>
@@ -8982,13 +8941,13 @@
         <v>140</v>
       </c>
       <c r="E265" s="4" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="F265" s="6">
         <v>92</v>
       </c>
       <c r="G265" s="6" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="H265" s="6"/>
       <c r="I265" s="9"/>
@@ -9007,16 +8966,16 @@
         <v>154</v>
       </c>
       <c r="E266" s="4" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F266" s="6">
         <v>8</v>
       </c>
       <c r="G266" s="6" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="H266" s="6" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="I266" s="9"/>
     </row>
@@ -9034,16 +8993,16 @@
         <v>249</v>
       </c>
       <c r="E267" s="4" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="F267" s="6">
         <v>13</v>
       </c>
       <c r="G267" s="6" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="H267" s="6" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="I267" s="9"/>
     </row>
@@ -9061,16 +9020,16 @@
         <v>334</v>
       </c>
       <c r="E268" s="4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F268" s="6">
         <v>93</v>
       </c>
       <c r="G268" s="6" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="H268" s="6" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="I268" s="9"/>
     </row>
@@ -9088,13 +9047,13 @@
         <v>418</v>
       </c>
       <c r="E269" s="4" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="F269" s="6">
         <v>94</v>
       </c>
       <c r="G269" s="6" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="H269" s="6"/>
       <c r="I269" s="9"/>
@@ -9113,13 +9072,13 @@
         <v>419</v>
       </c>
       <c r="E270" s="4" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F270" s="6">
         <v>95</v>
       </c>
       <c r="G270" s="6" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="H270" s="6"/>
       <c r="I270" s="9"/>
@@ -9138,16 +9097,16 @@
         <v>138</v>
       </c>
       <c r="E271" s="4" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F271" s="6">
         <v>14</v>
       </c>
       <c r="G271" s="6" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="H271" s="6" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="I271" s="9"/>
     </row>
@@ -9165,16 +9124,16 @@
         <v>146</v>
       </c>
       <c r="E272" s="4" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F272" s="6">
         <v>112</v>
       </c>
       <c r="G272" s="6" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="H272" s="6" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="I272" s="9"/>
     </row>
@@ -9192,16 +9151,16 @@
         <v>205</v>
       </c>
       <c r="E273" s="4" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F273" s="6">
         <v>113</v>
       </c>
       <c r="G273" s="6" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="H273" s="6" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="I273" s="9"/>
     </row>
@@ -9219,16 +9178,16 @@
         <v>208</v>
       </c>
       <c r="E274" s="4" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F274" s="6">
         <v>114</v>
       </c>
       <c r="G274" s="6" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="H274" s="6" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="I274" s="9"/>
     </row>
@@ -9246,16 +9205,16 @@
         <v>214</v>
       </c>
       <c r="E275" s="4" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="F275" s="6">
         <v>96</v>
       </c>
       <c r="G275" s="6" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="H275" s="6" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="I275" s="9"/>
     </row>
@@ -9273,16 +9232,16 @@
         <v>155</v>
       </c>
       <c r="E276" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F276" s="6">
         <v>15</v>
       </c>
       <c r="G276" s="6" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="H276" s="6" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="I276" s="9"/>
     </row>
@@ -9300,16 +9259,16 @@
         <v>332</v>
       </c>
       <c r="E277" s="4" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="F277" s="6">
         <v>115</v>
       </c>
       <c r="G277" s="6" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="H277" s="6" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="I277" s="9"/>
     </row>
@@ -9327,13 +9286,13 @@
         <v>283</v>
       </c>
       <c r="E278" s="4" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F278" s="6">
         <v>16</v>
       </c>
       <c r="G278" s="6" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="H278" s="6"/>
       <c r="I278" s="9"/>
@@ -9352,13 +9311,13 @@
         <v>271</v>
       </c>
       <c r="E279" s="4" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="F279" s="6">
         <v>17</v>
       </c>
       <c r="G279" s="6" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="H279" s="6"/>
       <c r="I279" s="9"/>
@@ -9377,13 +9336,13 @@
         <v>218</v>
       </c>
       <c r="E280" s="4" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F280" s="6">
         <v>42</v>
       </c>
       <c r="G280" s="6" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="H280" s="6"/>
       <c r="I280" s="9"/>
@@ -9402,13 +9361,13 @@
         <v>173</v>
       </c>
       <c r="E281" s="4" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="F281" s="6">
         <v>116</v>
       </c>
       <c r="G281" s="6" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="H281" s="6"/>
       <c r="I281" s="9"/>
@@ -9427,16 +9386,16 @@
         <v>47</v>
       </c>
       <c r="E282" s="4" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F282" s="6">
         <v>9</v>
       </c>
       <c r="G282" s="6" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="H282" s="6" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="I282" s="9"/>
     </row>
@@ -9454,16 +9413,16 @@
         <v>48</v>
       </c>
       <c r="E283" s="4" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="F283" s="6">
         <v>117</v>
       </c>
       <c r="G283" s="6" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="H283" s="6" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="I283" s="9"/>
     </row>
@@ -9481,16 +9440,16 @@
         <v>410</v>
       </c>
       <c r="E284" s="4" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F284" s="6">
         <v>10</v>
       </c>
       <c r="G284" s="6" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="H284" s="6" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="I284" s="9"/>
     </row>
@@ -9508,16 +9467,16 @@
         <v>365</v>
       </c>
       <c r="E285" s="4" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="F285" s="6">
         <v>118</v>
       </c>
       <c r="G285" s="6" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="H285" s="6" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="I285" s="9"/>
     </row>
@@ -9535,13 +9494,13 @@
         <v>113</v>
       </c>
       <c r="E286" s="4" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F286" s="6">
         <v>119</v>
       </c>
       <c r="G286" s="6" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="H286" s="6"/>
       <c r="I286" s="9"/>
@@ -9560,16 +9519,16 @@
         <v>303</v>
       </c>
       <c r="E287" s="4" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F287" s="6">
         <v>18</v>
       </c>
       <c r="G287" s="6" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="H287" s="6" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="I287" s="9"/>
     </row>
@@ -9587,16 +9546,16 @@
         <v>234</v>
       </c>
       <c r="E288" s="4" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F288" s="6">
         <v>19</v>
       </c>
       <c r="G288" s="6" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="H288" s="6" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="I288" s="9"/>
     </row>
@@ -9614,16 +9573,16 @@
         <v>260</v>
       </c>
       <c r="E289" s="4" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="F289" s="6">
         <v>11</v>
       </c>
       <c r="G289" s="6" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="H289" s="6" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="I289" s="9"/>
     </row>
@@ -9641,16 +9600,16 @@
         <v>279</v>
       </c>
       <c r="E290" s="4" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F290" s="6">
         <v>12</v>
       </c>
       <c r="G290" s="6" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="H290" s="6" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="I290" s="9"/>
     </row>
@@ -9668,16 +9627,16 @@
         <v>268</v>
       </c>
       <c r="E291" s="4" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="F291" s="6">
         <v>20</v>
       </c>
       <c r="G291" s="6" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="H291" s="6" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="I291" s="9"/>
     </row>
@@ -9695,16 +9654,16 @@
         <v>380</v>
       </c>
       <c r="E292" s="4" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F292" s="6">
         <v>2</v>
       </c>
       <c r="G292" s="6" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="H292" s="6" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="I292" s="9"/>
     </row>
@@ -9722,13 +9681,13 @@
         <v>159</v>
       </c>
       <c r="E293" s="4" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="F293" s="6">
         <v>43</v>
       </c>
       <c r="G293" s="6" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="H293" s="6"/>
       <c r="I293" s="9"/>
@@ -9747,13 +9706,13 @@
         <v>353</v>
       </c>
       <c r="E294" s="4" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F294" s="6">
         <v>97</v>
       </c>
       <c r="G294" s="6" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="H294" s="6"/>
       <c r="I294" s="9"/>
@@ -9772,16 +9731,16 @@
         <v>264</v>
       </c>
       <c r="E295" s="4" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="F295" s="6">
         <v>44</v>
       </c>
       <c r="G295" s="6" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="H295" s="6" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="I295" s="9"/>
     </row>
@@ -9799,16 +9758,16 @@
         <v>308</v>
       </c>
       <c r="E296" s="4" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="F296" s="6">
         <v>21</v>
       </c>
       <c r="G296" s="6" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="H296" s="6" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="I296" s="9"/>
     </row>
@@ -9826,13 +9785,13 @@
         <v>345</v>
       </c>
       <c r="E297" s="4" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F297" s="6">
         <v>45</v>
       </c>
       <c r="G297" s="6" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="H297" s="6"/>
       <c r="I297" s="9"/>
@@ -9851,16 +9810,16 @@
         <v>263</v>
       </c>
       <c r="E298" s="4" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F298" s="6">
         <v>120</v>
       </c>
       <c r="G298" s="6" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="H298" s="6" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="I298" s="9"/>
     </row>
@@ -9878,16 +9837,16 @@
         <v>3</v>
       </c>
       <c r="E299" s="4" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="F299" s="6">
         <v>121</v>
       </c>
       <c r="G299" s="6" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="H299" s="6" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="I299" s="9"/>
     </row>
@@ -9905,16 +9864,16 @@
         <v>248</v>
       </c>
       <c r="E300" s="4" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F300" s="6">
         <v>46</v>
       </c>
       <c r="G300" s="6" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="H300" s="6" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="I300" s="9"/>
     </row>
@@ -9932,16 +9891,16 @@
         <v>247</v>
       </c>
       <c r="E301" s="4" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="F301" s="6">
         <v>3</v>
       </c>
       <c r="G301" s="6" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="H301" s="6" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="I301" s="5"/>
     </row>
@@ -9959,16 +9918,16 @@
         <v>440</v>
       </c>
       <c r="E302" s="4" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F302" s="6">
         <v>47</v>
       </c>
       <c r="G302" s="6" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="H302" s="6" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="I302" s="5"/>
     </row>
@@ -9986,16 +9945,16 @@
         <v>169</v>
       </c>
       <c r="E303" s="4" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="F303" s="6">
         <v>122</v>
       </c>
       <c r="G303" s="6" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="H303" s="6" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="I303" s="9"/>
     </row>
@@ -10013,16 +9972,16 @@
         <v>126</v>
       </c>
       <c r="E304" s="4" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F304" s="6">
         <v>123</v>
       </c>
       <c r="G304" s="6" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="H304" s="6" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="I304" s="9"/>
     </row>
@@ -10040,13 +9999,13 @@
         <v>141</v>
       </c>
       <c r="E305" s="4" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="F305" s="6">
         <v>98</v>
       </c>
       <c r="G305" s="6" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="H305" s="6"/>
       <c r="I305" s="9"/>
@@ -10065,13 +10024,13 @@
         <v>280</v>
       </c>
       <c r="E306" s="4" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F306" s="6">
         <v>99</v>
       </c>
       <c r="G306" s="6" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="H306" s="6"/>
       <c r="I306" s="9"/>
@@ -10090,13 +10049,13 @@
         <v>328</v>
       </c>
       <c r="E307" s="4" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="F307" s="6">
         <v>22</v>
       </c>
       <c r="G307" s="6" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="H307" s="6"/>
       <c r="I307" s="9"/>
@@ -10115,13 +10074,13 @@
         <v>288</v>
       </c>
       <c r="E308" s="4" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F308" s="6">
         <v>48</v>
       </c>
       <c r="G308" s="6" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="H308" s="6"/>
       <c r="I308" s="9"/>
@@ -10140,13 +10099,13 @@
         <v>29</v>
       </c>
       <c r="E309" s="4" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="F309" s="6">
         <v>13</v>
       </c>
       <c r="G309" s="6" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="H309" s="6"/>
       <c r="I309" s="9"/>
@@ -10165,13 +10124,13 @@
         <v>118</v>
       </c>
       <c r="E310" s="4" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="F310" s="6">
         <v>124</v>
       </c>
       <c r="G310" s="6" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="H310" s="6"/>
       <c r="I310" s="9"/>
@@ -10190,13 +10149,13 @@
         <v>136</v>
       </c>
       <c r="E311" s="4" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="F311" s="6">
         <v>14</v>
       </c>
       <c r="G311" s="6" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="H311" s="6"/>
       <c r="I311" s="9"/>
@@ -10215,16 +10174,16 @@
         <v>244</v>
       </c>
       <c r="E312" s="4" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="F312" s="6">
         <v>100</v>
       </c>
       <c r="G312" s="6" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="H312" s="6" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="I312" s="9"/>
     </row>
@@ -10242,16 +10201,16 @@
         <v>122</v>
       </c>
       <c r="E313" s="4" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="F313" s="6">
         <v>125</v>
       </c>
       <c r="G313" s="6" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="H313" s="6" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="I313" s="9"/>
     </row>
@@ -10269,16 +10228,16 @@
         <v>123</v>
       </c>
       <c r="E314" s="4" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="F314" s="6">
         <v>15</v>
       </c>
       <c r="G314" s="6" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="H314" s="6" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="I314" s="9"/>
     </row>
@@ -10296,16 +10255,16 @@
         <v>341</v>
       </c>
       <c r="E315" s="4" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="F315" s="6">
         <v>16</v>
       </c>
       <c r="G315" s="6" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="H315" s="6" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="I315" s="9"/>
     </row>
@@ -10323,16 +10282,16 @@
         <v>276</v>
       </c>
       <c r="E316" s="4" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="F316" s="6">
         <v>23</v>
       </c>
       <c r="G316" s="6" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="H316" s="6" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="I316" s="9"/>
     </row>
@@ -10350,13 +10309,13 @@
         <v>64</v>
       </c>
       <c r="E317" s="4" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="F317" s="6">
         <v>126</v>
       </c>
       <c r="G317" s="6" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="H317" s="6"/>
       <c r="I317" s="9"/>
@@ -10375,13 +10334,13 @@
         <v>62</v>
       </c>
       <c r="E318" s="4" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F318" s="6">
         <v>17</v>
       </c>
       <c r="G318" s="6" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="H318" s="6"/>
       <c r="I318" s="9"/>
@@ -10400,13 +10359,13 @@
         <v>390</v>
       </c>
       <c r="E319" s="4" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="F319" s="6">
         <v>49</v>
       </c>
       <c r="G319" s="6" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="H319" s="6"/>
       <c r="I319" s="9"/>
@@ -10425,13 +10384,13 @@
         <v>107</v>
       </c>
       <c r="E320" s="4" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F320" s="6">
         <v>127</v>
       </c>
       <c r="G320" s="6" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="H320" s="6"/>
       <c r="I320" s="9"/>
@@ -10450,13 +10409,13 @@
         <v>108</v>
       </c>
       <c r="E321" s="4" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="F321" s="6">
         <v>128</v>
       </c>
       <c r="G321" s="6" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="H321" s="6"/>
       <c r="I321" s="9"/>
@@ -10475,13 +10434,13 @@
         <v>18</v>
       </c>
       <c r="E322" s="4" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="F322" s="6">
         <v>129</v>
       </c>
       <c r="G322" s="6" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="H322" s="6"/>
       <c r="I322" s="9"/>
@@ -10500,13 +10459,13 @@
         <v>226</v>
       </c>
       <c r="E323" s="4" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="F323" s="6">
         <v>130</v>
       </c>
       <c r="G323" s="6" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="H323" s="6"/>
       <c r="I323" s="9"/>
@@ -10525,16 +10484,16 @@
         <v>282</v>
       </c>
       <c r="E324" s="4" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F324" s="6">
         <v>50</v>
       </c>
       <c r="G324" s="6" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="H324" s="6" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="I324" s="9"/>
     </row>
@@ -10552,16 +10511,16 @@
         <v>52</v>
       </c>
       <c r="E325" s="4" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="F325" s="6">
         <v>131</v>
       </c>
       <c r="G325" s="6" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="H325" s="6" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="I325" s="9"/>
     </row>
@@ -10579,13 +10538,13 @@
         <v>49</v>
       </c>
       <c r="E326" s="4" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="F326" s="6">
         <v>18</v>
       </c>
       <c r="G326" s="6" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="H326" s="6"/>
       <c r="I326" s="9"/>
@@ -10604,13 +10563,13 @@
         <v>291</v>
       </c>
       <c r="E327" s="4" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="F327" s="6">
         <v>19</v>
       </c>
       <c r="G327" s="6" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="H327" s="6"/>
       <c r="I327" s="9"/>
@@ -10629,16 +10588,16 @@
         <v>284</v>
       </c>
       <c r="E328" s="4" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="F328" s="6">
         <v>51</v>
       </c>
       <c r="G328" s="6" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="H328" s="6" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="I328" s="9"/>
     </row>
@@ -10656,13 +10615,13 @@
         <v>27</v>
       </c>
       <c r="E329" s="4" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="F329" s="6">
         <v>52</v>
       </c>
       <c r="G329" s="6" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="H329" s="6"/>
       <c r="I329" s="9"/>
@@ -10681,13 +10640,13 @@
         <v>285</v>
       </c>
       <c r="E330" s="4" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="F330" s="6">
         <v>53</v>
       </c>
       <c r="G330" s="6" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="H330" s="6"/>
       <c r="I330" s="9"/>
@@ -10706,13 +10665,13 @@
         <v>65</v>
       </c>
       <c r="E331" s="4" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="F331" s="6">
         <v>132</v>
       </c>
       <c r="G331" s="6" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="H331" s="6"/>
       <c r="I331" s="9"/>
@@ -10731,16 +10690,16 @@
         <v>335</v>
       </c>
       <c r="E332" s="4" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="F332" s="6">
         <v>24</v>
       </c>
       <c r="G332" s="6" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="H332" s="6" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="I332" s="9"/>
     </row>
@@ -10758,13 +10717,13 @@
         <v>438</v>
       </c>
       <c r="E333" s="4" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="F333" s="6">
         <v>101</v>
       </c>
       <c r="G333" s="6" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="H333" s="6"/>
       <c r="I333" s="9"/>
@@ -10783,16 +10742,16 @@
         <v>278</v>
       </c>
       <c r="E334" s="4" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="F334" s="6">
         <v>54</v>
       </c>
       <c r="G334" s="6" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="H334" s="6" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="I334" s="9"/>
     </row>
@@ -10810,16 +10769,16 @@
         <v>109</v>
       </c>
       <c r="E335" s="4" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="F335" s="6">
         <v>25</v>
       </c>
       <c r="G335" s="6" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="H335" s="6" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="I335" s="9"/>
     </row>
@@ -10837,16 +10796,16 @@
         <v>152</v>
       </c>
       <c r="E336" s="4" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="F336" s="6">
         <v>133</v>
       </c>
       <c r="G336" s="6" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="H336" s="6" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="I336" s="9"/>
     </row>
@@ -10864,16 +10823,16 @@
         <v>236</v>
       </c>
       <c r="E337" s="4" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="F337" s="6">
         <v>102</v>
       </c>
       <c r="G337" s="6" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="H337" s="6" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="I337" s="9"/>
     </row>
@@ -10891,16 +10850,16 @@
         <v>386</v>
       </c>
       <c r="E338" s="4" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="F338" s="6">
         <v>20</v>
       </c>
       <c r="G338" s="6" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="H338" s="6" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="I338" s="9"/>
     </row>
@@ -10918,13 +10877,13 @@
         <v>202</v>
       </c>
       <c r="E339" s="4" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="F339" s="6">
         <v>103</v>
       </c>
       <c r="G339" s="6" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="H339" s="6"/>
       <c r="I339" s="9"/>
@@ -10943,13 +10902,13 @@
         <v>68</v>
       </c>
       <c r="E340" s="4" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="F340" s="6">
         <v>134</v>
       </c>
       <c r="G340" s="6" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="H340" s="6"/>
       <c r="I340" s="9"/>
@@ -10968,13 +10927,13 @@
         <v>131</v>
       </c>
       <c r="E341" s="4" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="F341" s="6">
         <v>55</v>
       </c>
       <c r="G341" s="6" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="H341" s="6"/>
       <c r="I341" s="9"/>
@@ -10993,13 +10952,13 @@
         <v>132</v>
       </c>
       <c r="E342" s="4" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="F342" s="6">
         <v>56</v>
       </c>
       <c r="G342" s="6" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="H342" s="6"/>
       <c r="I342" s="9"/>
@@ -11018,13 +10977,13 @@
         <v>411</v>
       </c>
       <c r="E343" s="4" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="F343" s="6">
         <v>21</v>
       </c>
       <c r="G343" s="6" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="H343" s="6"/>
       <c r="I343" s="9"/>
@@ -11043,13 +11002,13 @@
         <v>292</v>
       </c>
       <c r="E344" s="4" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="F344" s="6">
         <v>22</v>
       </c>
       <c r="G344" s="6" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="H344" s="6"/>
       <c r="I344" s="9"/>
@@ -11068,16 +11027,16 @@
         <v>102</v>
       </c>
       <c r="E345" s="4" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="F345" s="6">
         <v>57</v>
       </c>
       <c r="G345" s="6" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="H345" s="6" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="I345" s="9"/>
     </row>
@@ -11095,16 +11054,16 @@
         <v>304</v>
       </c>
       <c r="E346" s="4" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="F346" s="6">
         <v>104</v>
       </c>
       <c r="G346" s="6" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="H346" s="6" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="I346" s="9"/>
     </row>
@@ -11122,16 +11081,16 @@
         <v>89</v>
       </c>
       <c r="E347" s="4" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="F347" s="6">
         <v>58</v>
       </c>
       <c r="G347" s="6" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="H347" s="6" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="I347" s="9"/>
     </row>
@@ -11149,16 +11108,16 @@
         <v>197</v>
       </c>
       <c r="E348" s="4" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="F348" s="6">
         <v>59</v>
       </c>
       <c r="G348" s="6" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="H348" s="6" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="I348" s="9"/>
     </row>
@@ -11176,16 +11135,16 @@
         <v>54</v>
       </c>
       <c r="E349" s="4" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="F349" s="6">
         <v>60</v>
       </c>
       <c r="G349" s="6" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="H349" s="6" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="I349" s="9"/>
     </row>
@@ -11203,16 +11162,16 @@
         <v>34</v>
       </c>
       <c r="E350" s="4" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="F350" s="6">
         <v>23</v>
       </c>
       <c r="G350" s="6" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="H350" s="6" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="I350" s="9"/>
     </row>
@@ -11230,13 +11189,13 @@
         <v>384</v>
       </c>
       <c r="E351" s="4" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="F351" s="6">
         <v>105</v>
       </c>
       <c r="G351" s="6" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="H351" s="5"/>
       <c r="I351" s="9"/>
@@ -11255,16 +11214,16 @@
         <v>336</v>
       </c>
       <c r="E352" s="4" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="F352" s="6">
         <v>61</v>
       </c>
       <c r="G352" s="6" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="H352" s="6" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="I352" s="5"/>
     </row>
@@ -11282,16 +11241,16 @@
         <v>158</v>
       </c>
       <c r="E353" s="4" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="F353" s="6">
         <v>4</v>
       </c>
       <c r="G353" s="6" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="H353" s="6" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="I353" s="9"/>
     </row>
@@ -11309,16 +11268,16 @@
         <v>1</v>
       </c>
       <c r="E354" s="4" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="F354" s="6">
         <v>135</v>
       </c>
       <c r="G354" s="6" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="H354" s="6" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="I354" s="9"/>
     </row>
@@ -11336,16 +11295,16 @@
         <v>387</v>
       </c>
       <c r="E355" s="4" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="F355" s="6">
         <v>26</v>
       </c>
       <c r="G355" s="6" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="H355" s="6" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="I355" s="9"/>
     </row>
@@ -11363,13 +11322,13 @@
         <v>338</v>
       </c>
       <c r="E356" s="4" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="F356" s="6">
         <v>62</v>
       </c>
       <c r="G356" s="6" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="H356" s="6"/>
       <c r="I356" s="9"/>
@@ -11388,13 +11347,13 @@
         <v>421</v>
       </c>
       <c r="E357" s="4" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="F357" s="6">
         <v>106</v>
       </c>
       <c r="G357" s="6" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="H357" s="6"/>
       <c r="I357" s="9"/>
@@ -11413,16 +11372,16 @@
         <v>251</v>
       </c>
       <c r="E358" s="4" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="F358" s="6">
         <v>24</v>
       </c>
       <c r="G358" s="6" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="H358" s="6" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="I358" s="9"/>
     </row>
@@ -11440,16 +11399,16 @@
         <v>254</v>
       </c>
       <c r="E359" s="4" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="F359" s="6">
         <v>27</v>
       </c>
       <c r="G359" s="6" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="H359" s="6" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="I359" s="9"/>
     </row>
@@ -11467,16 +11426,16 @@
         <v>262</v>
       </c>
       <c r="E360" s="4" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="F360" s="6">
         <v>28</v>
       </c>
       <c r="G360" s="6" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="H360" s="6" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="I360" s="9"/>
     </row>
@@ -11494,16 +11453,16 @@
         <v>275</v>
       </c>
       <c r="E361" s="4" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="F361" s="6">
         <v>107</v>
       </c>
       <c r="G361" s="6" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="H361" s="6" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="I361" s="9"/>
     </row>
@@ -11521,16 +11480,16 @@
         <v>150</v>
       </c>
       <c r="E362" s="4" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="F362" s="6">
         <v>25</v>
       </c>
       <c r="G362" s="6" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="H362" s="6" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="I362" s="9"/>
     </row>
@@ -11548,13 +11507,13 @@
         <v>223</v>
       </c>
       <c r="E363" s="4" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="F363" s="6">
         <v>63</v>
       </c>
       <c r="G363" s="6" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="H363" s="6"/>
       <c r="I363" s="9"/>
@@ -11573,16 +11532,16 @@
         <v>232</v>
       </c>
       <c r="E364" s="4" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="F364" s="6">
         <v>64</v>
       </c>
       <c r="G364" s="6" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="H364" s="6" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="I364" s="9"/>
     </row>
@@ -11600,13 +11559,13 @@
         <v>224</v>
       </c>
       <c r="E365" s="4" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="F365" s="6">
         <v>65</v>
       </c>
       <c r="G365" s="6" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="H365" s="6"/>
       <c r="I365" s="9"/>
@@ -11625,16 +11584,16 @@
         <v>227</v>
       </c>
       <c r="E366" s="4" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="F366" s="6">
         <v>5</v>
       </c>
       <c r="G366" s="6" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="H366" s="6" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="I366" s="9"/>
     </row>
@@ -11652,16 +11611,16 @@
         <v>416</v>
       </c>
       <c r="E367" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="F367" s="6">
         <v>26</v>
       </c>
       <c r="G367" s="6" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="H367" s="6" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="I367" s="9"/>
     </row>
@@ -11679,16 +11638,16 @@
         <v>415</v>
       </c>
       <c r="E368" s="4" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="F368" s="6">
         <v>136</v>
       </c>
       <c r="G368" s="6" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="H368" s="6" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="I368" s="9"/>
     </row>
@@ -11706,16 +11665,16 @@
         <v>237</v>
       </c>
       <c r="E369" s="4" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="F369" s="6">
         <v>6</v>
       </c>
       <c r="G369" s="6" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="H369" s="6" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="I369" s="9"/>
     </row>
@@ -11733,13 +11692,13 @@
         <v>24</v>
       </c>
       <c r="E370" s="4" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="F370" s="6">
         <v>108</v>
       </c>
       <c r="G370" s="6" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="H370" s="6"/>
       <c r="I370" s="9"/>
@@ -11758,16 +11717,16 @@
         <v>428</v>
       </c>
       <c r="E371" s="4" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="F371" s="6">
         <v>137</v>
       </c>
       <c r="G371" s="6" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="H371" s="6" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="I371" s="9"/>
     </row>
@@ -11785,13 +11744,13 @@
         <v>346</v>
       </c>
       <c r="E372" s="4" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="F372" s="6">
         <v>27</v>
       </c>
       <c r="G372" s="6" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="H372" s="5"/>
       <c r="I372" s="9"/>
